--- a/resource/data.xlsx
+++ b/resource/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cheolmin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\ts-excel\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07DD04D-2C36-4A5D-94D2-9F4200388EFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE430375-0F66-4C3B-9C9A-C0AB50EB4643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="하이드 브랜드 정리" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="872">
   <si>
     <t>all</t>
   </si>
@@ -2615,27 +2615,35 @@
     <t>seed category_new 적용</t>
   </si>
   <si>
-    <t>before-id</t>
+    <t>beforeId</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>before-name</t>
+    <t>beforeName</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>before-gender</t>
+    <t>beforeGender</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>after-id</t>
+    <t>afterId</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>after-name</t>
+    <t>49Winters</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>after-gender</t>
+    <t>afterName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>afterGender</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2646,7 +2654,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2674,6 +2682,11 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2759,7 +2772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2808,10 +2821,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2821,15 +2843,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3151,7 +3168,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3161,23 +3178,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="24" t="s">
         <v>864</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="25" t="s">
         <v>865</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="26" t="s">
         <v>866</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="24" t="s">
         <v>867</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>868</v>
-      </c>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="25" t="s">
         <v>869</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3193,11 +3210,11 @@
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>0</v>
+      <c r="E2" s="32" t="s">
+        <v>868</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9966,29 +9983,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>844</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>845</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="30" t="s">
         <v>846</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="28" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="31" t="s">
         <v>847</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
+      <c r="A2" s="28"/>
       <c r="B2" s="10">
         <v>44188</v>
       </c>
@@ -10034,7 +10051,7 @@
       <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="12" t="s">
         <v>848</v>
       </c>
